--- a/biology/Botanique/Ailanthus_triphysa/Ailanthus_triphysa.xlsx
+++ b/biology/Botanique/Ailanthus_triphysa/Ailanthus_triphysa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ailanthus triphysa est un arbre originaire d'Asie et la forêt tropicale australienne de la famille des Simaroubaceae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Inde, au Sri Lanka, Chine, Malaisie, Birmanie, Thaïlande, Philippines, Indonésie et Vietnam. En Australie, on le trouve en Australie-Occidentale, au Queensland et au sud jusqu'au fleuve Clarence (Nouvelle-Galles du Sud).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre de taille moyenne à feuilles persistantes atteignant 35 mètres de haut et un diamètre de 80 cm. Le tronc qui n'est pas renforcé à la base, est droit et cylindrique. L'écorce est grise, un peu rude et ressemble à du papier de verre au toucher. 
 Les feuilles sont pennées, courbes et falciformes étirées en pointe. Les nervures sont proéminentes, plus visibles sur la face inférieure de la feuille. 
@@ -575,7 +591,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La résine est utilisée à des fins médicinales en Inde. Le bois est également de valeur, léger, blanc et doux, il se travaille facilement.
 </t>
